--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/77.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/77.xlsx
@@ -479,13 +479,13 @@
         <v>-4.525581293378581</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.646617741114447</v>
+        <v>-8.632700623193694</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.048466876717957</v>
+        <v>-3.042405140502237</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.432601408801958</v>
+        <v>-5.42443181182872</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.102955774952669</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.892517373087747</v>
+        <v>-8.87798491693343</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.140243919638456</v>
+        <v>-3.133304999132342</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.359664189670701</v>
+        <v>-5.34987114714509</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.856119356515563</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.711886054134331</v>
+        <v>-9.698126043847678</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.023473670593102</v>
+        <v>-3.017608318920008</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.232459375260491</v>
+        <v>-5.223334040179807</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.817869540079232</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.482773937758</v>
+        <v>-10.47103014210898</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.928515198082062</v>
+        <v>-2.921838123632782</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.442132605270734</v>
+        <v>-5.433282208549727</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.946150158617131</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.26105897248725</v>
+        <v>-11.2484903617592</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.776330269849839</v>
+        <v>-2.768579626567537</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.994860263288846</v>
+        <v>-4.985983681962156</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.212849922151904</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.92520531104233</v>
+        <v>-11.91359243842172</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.746741665427538</v>
+        <v>-2.740404990852142</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.131177320476898</v>
+        <v>-5.121436647162653</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.576751502258972</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.42438863379166</v>
+        <v>-12.41308997643925</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.626436494614917</v>
+        <v>-2.61948448180596</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.691171206572168</v>
+        <v>-4.681954225371593</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.993723543628938</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.39900584193544</v>
+        <v>-13.38697401562389</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.371490081377985</v>
+        <v>-2.365179591408273</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.609134836965913</v>
+        <v>-4.601266362958035</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.413896852176986</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.14686436486051</v>
+        <v>-14.13607630731893</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.346549244464497</v>
+        <v>-2.339715062381116</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.237195605535317</v>
+        <v>-4.229314039224597</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.802787471827735</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.84270716859541</v>
+        <v>-14.83092409603786</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.171452786259253</v>
+        <v>-2.164487681147454</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.022311638994067</v>
+        <v>-4.013971842083888</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.126594758725266</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.50413030815941</v>
+        <v>-15.4929887584411</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.158347391114685</v>
+        <v>-2.151225178368786</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.505584630436823</v>
+        <v>-3.498423140782398</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.357152323636031</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.47377244122333</v>
+        <v>-16.46221193781408</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.992507191018541</v>
+        <v>-1.985175501427174</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.866104190435554</v>
+        <v>-2.858144070307785</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.487097764091896</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.11594989560999</v>
+        <v>-17.10569862248492</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.7135233097642</v>
+        <v>-1.706793866103553</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.501116971813915</v>
+        <v>-2.493300867017405</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.516293554595071</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.02078512960736</v>
+        <v>-18.01004944127715</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.546661910046401</v>
+        <v>-1.538950543672625</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.907237022610379</v>
+        <v>-1.899224533271243</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.450793492300135</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.93588472903265</v>
+        <v>-18.92525377912517</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.380664602316156</v>
+        <v>-1.372442636131552</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.551244216041005</v>
+        <v>-1.544619510803092</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.306843012933125</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.72518039045179</v>
+        <v>-19.71415667145905</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.135327939365051</v>
+        <v>-1.126019312044584</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.024684888049624</v>
+        <v>-1.019578889941351</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.108146481578497</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.70948590269844</v>
+        <v>-20.69892041430516</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.038353252216387</v>
+        <v>-1.028481655873725</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6618971763053952</v>
+        <v>-0.6546440405310789</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.875964370327296</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.5489905455156</v>
+        <v>-21.53745622671203</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8858541087159613</v>
+        <v>-0.8751315126885877</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2940165587557344</v>
+        <v>-0.2886225299849433</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.62763295214277</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.19688933624409</v>
+        <v>-22.18470040229845</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6302268957312598</v>
+        <v>-0.6191115306186344</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08386657816500512</v>
+        <v>0.09187906750414147</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.387776762452984</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.8275324718272</v>
+        <v>-22.81631236829184</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3295359763653372</v>
+        <v>-0.3185646265839708</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4021142756416824</v>
+        <v>0.4098911035296677</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.172277194060481</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.45731151542275</v>
+        <v>-23.44601285807034</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06144489107531251</v>
+        <v>-0.05014623372290292</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3690693032691658</v>
+        <v>0.3769115926713597</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.987179587421761</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.96599985003517</v>
+        <v>-23.95549982315611</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05296874345853159</v>
+        <v>0.06595630787752385</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6298025143621404</v>
+        <v>0.637042557833615</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.844489412292861</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.34799397004821</v>
+        <v>-24.33507186714343</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03257093563112238</v>
+        <v>0.04417071594889167</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5613166781970713</v>
+        <v>0.5687792908168552</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.748406616676964</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.62195040701133</v>
+        <v>-24.61084813420155</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3199338907041678</v>
+        <v>0.3303553637661818</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5501882207816042</v>
+        <v>0.5570224028649852</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.694139105873714</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.63772663193561</v>
+        <v>-24.62775029717022</v>
       </c>
       <c r="F26" t="n">
-        <v>0.332018086227081</v>
+        <v>0.3421253440208936</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3917975410024022</v>
+        <v>0.3985924461772581</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.676475283322712</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.6113980109209</v>
+        <v>-24.60076706101342</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1507420610805419</v>
+        <v>0.161202811051081</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3674458577167918</v>
+        <v>0.3748561011252087</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.690696046468983</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.72390016923985</v>
+        <v>-24.71287645024712</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2683371252049254</v>
+        <v>0.2788109674783062</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0778310265549694</v>
+        <v>0.08454737791277486</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.724111662586802</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.76735352237154</v>
+        <v>-24.75598940350492</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2172509595165103</v>
+        <v>0.2276462479728408</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01923530671358767</v>
+        <v>-0.01258441686999083</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.759119378168478</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.54305619008709</v>
+        <v>-24.53239905557392</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08928679154147971</v>
+        <v>0.09866088037615557</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2145200959007737</v>
+        <v>-0.209008236404407</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.78746694230006</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.07059425743772</v>
+        <v>-24.0586017080347</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08876309942781066</v>
+        <v>0.09815028056532825</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6769664168762219</v>
+        <v>-0.6706952038150351</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.795493662950039</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.15121665833707</v>
+        <v>-24.13880515524311</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1504278458123404</v>
+        <v>0.1591604118077717</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7377801635760395</v>
+        <v>-0.7322944886853563</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.767834910761317</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.73029912197558</v>
+        <v>-23.71703661919691</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06640144617414254</v>
+        <v>0.07404735103371056</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.203106791176667</v>
+        <v>-1.197987700765553</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.698583920393658</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.16856077624848</v>
+        <v>-23.15675151908524</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.08897800395146244</v>
+        <v>-0.08203908344534762</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.276567702421592</v>
+        <v>-1.271631904250262</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.582921692640659</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.82546388797821</v>
+        <v>-22.8134451539695</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2807540559770659</v>
+        <v>-0.2733961817800158</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.300356416685009</v>
+        <v>-1.296101418261448</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.416488425102465</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.10101440253413</v>
+        <v>-22.08928369918795</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4103809464129957</v>
+        <v>-0.4030230722159456</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.504949833192662</v>
+        <v>-1.500721019374784</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.200585680216698</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.29015571833467</v>
+        <v>-21.27762638451514</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3470142006590415</v>
+        <v>-0.340297849301236</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.631513124763628</v>
+        <v>-1.627912741482153</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.942211498256956</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.91553256482152</v>
+        <v>-20.90419463056059</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4040311795347585</v>
+        <v>-0.3976683203536797</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.88137972449797</v>
+        <v>-1.87774006430797</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.647816558896828</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.26148039175741</v>
+        <v>-20.25019482670784</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2542814196310958</v>
+        <v>-0.246766437799945</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.034258544780805</v>
+        <v>-2.031194945915841</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.324223884455451</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.95568347428322</v>
+        <v>-19.94519653970699</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5346399926838178</v>
+        <v>-0.5269286263100411</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.258804630819249</v>
+        <v>-2.255557739714501</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.985738774068326</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.42253871796245</v>
+        <v>-19.41230053714022</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2566642187482899</v>
+        <v>-0.248442252563686</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.098777413184831</v>
+        <v>-2.093749968893608</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.642188243100022</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.86226671015362</v>
+        <v>-18.85003849929945</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000874470451303567</v>
+        <v>0.009188082755799621</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.073417622580408</v>
+        <v>-2.068154516838034</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.300797188248417</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.95984045987913</v>
+        <v>-17.94740277217949</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.007949741664019802</v>
+        <v>0.0005602551831021414</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.962277063756995</v>
+        <v>-1.955141758708254</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.972623151705365</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.62501790700482</v>
+        <v>-17.6116113888949</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0375067338024531</v>
+        <v>0.0447860541824528</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.162680943355296</v>
+        <v>-2.154917207770152</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.665440893810644</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.11224477390578</v>
+        <v>-17.09874660967596</v>
       </c>
       <c r="F45" t="n">
-        <v>0.007486083386375231</v>
+        <v>0.01523672666867706</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.205191650682381</v>
+        <v>-2.198095622542165</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.382832206144308</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.73394268329411</v>
+        <v>-16.72030050373303</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02827666029903623</v>
+        <v>0.03640698036374811</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.145582395844002</v>
+        <v>-2.13897078290893</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.128346633979316</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.06890606814579</v>
+        <v>-16.05768596461043</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03533341153072658</v>
+        <v>0.04287457796756079</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.4371348878264</v>
+        <v>-2.429135490790105</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.9052970977428395</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.41811387848927</v>
+        <v>-15.40757457470168</v>
       </c>
       <c r="F48" t="n">
-        <v>0.006661268307346489</v>
+        <v>0.01407151171576344</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.371621004406403</v>
+        <v>-2.363150284467806</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.7124591884190604</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.88081886216768</v>
+        <v>-14.86980823547778</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1559135207030237</v>
+        <v>0.162446579821045</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.555122721036035</v>
+        <v>-2.546717462611647</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.5462891883201775</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.18506770455267</v>
+        <v>-14.17613875401461</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3030448200383412</v>
+        <v>0.3114108015542042</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.468792076097693</v>
+        <v>-2.459064495086291</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.4070278255977657</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.41843481935256</v>
+        <v>-13.41119477588108</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2978864527187012</v>
+        <v>0.30424931189978</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.535104589991036</v>
+        <v>-2.524093963301144</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2910731272592669</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.82928119147488</v>
+        <v>-12.82196259418636</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3826852982245609</v>
+        <v>0.3898729724846685</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.544884540213805</v>
+        <v>-2.532839621599417</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1941954444351412</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.18043975494178</v>
+        <v>-12.17385432661239</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4323444029032279</v>
+        <v>0.4384846929359974</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.564771748230387</v>
+        <v>-2.55280538343305</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1149009290689744</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.80215075663295</v>
+        <v>-11.79531657454957</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3231153202947073</v>
+        <v>0.3303553637661818</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.670740847431318</v>
+        <v>-2.657949667554952</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.0510817020190892</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34704921755171</v>
+        <v>-11.33999246632002</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07328799746889045</v>
+        <v>0.07993888731248729</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.136669720962665</v>
+        <v>-3.122804972253277</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.711554691665724e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.9043199046559</v>
+        <v>-10.89900442970216</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1649079327552895</v>
+        <v>0.171859945564246</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.206163664446547</v>
+        <v>-3.191172977692771</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.04021645140599585</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14746696967856</v>
+        <v>-10.14220386393618</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1030729864338173</v>
+        <v>0.1106403374763349</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.570260606474949</v>
+        <v>-3.554654581487612</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.0708365435427265</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.845506096936987</v>
+        <v>-9.839143237755909</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.0723376870396286</v>
+        <v>-0.06410262855218291</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.604457701497538</v>
+        <v>-3.589637214680704</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.0942128918729485</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.299609437648378</v>
+        <v>-9.293875009003701</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01873237152741792</v>
+        <v>0.02741256831148231</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.888429750134576</v>
+        <v>-3.873386694169433</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1122547661934051</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.93781674092012</v>
+        <v>-8.93395451158181</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1185535160709216</v>
+        <v>-0.1104362883090515</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.802518058887169</v>
+        <v>-3.788509294846523</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1262273408929343</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.410157659490034</v>
+        <v>-8.407827229584207</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1430753992934745</v>
+        <v>-0.1351152791657051</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.204242279282692</v>
+        <v>-4.189840746156793</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1386067816279367</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.901377678757717</v>
+        <v>-7.898667572069479</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.08714508155362079</v>
+        <v>-0.07892311536901682</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.162150525646543</v>
+        <v>-4.149110592016184</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1523786367344961</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.417001750522378</v>
+        <v>-7.412262336893672</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.141622153678043</v>
+        <v>-0.1335572951275397</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.165214124511507</v>
+        <v>-4.152134913972622</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1707778170375756</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.067895495247752</v>
+        <v>-7.066808834111889</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3000913872742953</v>
+        <v>-0.2919348826038999</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.412396802163295</v>
+        <v>-4.400286422034698</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1986589106668599</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.692787926529459</v>
+        <v>-6.689554127727551</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2464784071374271</v>
+        <v>-0.2390943483346935</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.695557128024147</v>
+        <v>-4.683040886507456</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2406704093482935</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.443104619034901</v>
+        <v>-6.44060398919213</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3632224715770984</v>
+        <v>-0.3558122281686814</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.688264715341305</v>
+        <v>-4.675303335527996</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2992289746154819</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.281296848214008</v>
+        <v>-6.279804325690051</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4194670045851536</v>
+        <v>-0.4113759614289669</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.802822365206408</v>
+        <v>-4.789455124005006</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.3768859283830293</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.005049258253588</v>
+        <v>-6.00362219724384</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3880062008564859</v>
+        <v>-0.3813160341043638</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.802429596121156</v>
+        <v>-4.790869092711913</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.474005397349225</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.869727216081507</v>
+        <v>-5.868496539614385</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6432668293616189</v>
+        <v>-0.6349532170571229</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.901839451598383</v>
+        <v>-4.890226578977772</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.5885052119430105</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.634576364741266</v>
+        <v>-5.6330183807031</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5885671880888875</v>
+        <v>-0.5806725294753267</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.76748623983659</v>
+        <v>-4.755951921033029</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.7185245922424531</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.511822933297242</v>
+        <v>-5.509832903265299</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6869296593387755</v>
+        <v>-0.6795063236275167</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.743605879453281</v>
+        <v>-4.732569068157706</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.8633829930183563</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.491490586984041</v>
+        <v>-5.490678864207854</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.781154962890678</v>
+        <v>-0.7736137964538438</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.645282685111918</v>
+        <v>-4.635319442649365</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>1.020765124721938</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.525884066549255</v>
+        <v>-5.524024959545731</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8386170800630136</v>
+        <v>-0.8316519749512153</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.456360755105811</v>
+        <v>-4.445965466649481</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>1.185474916726786</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.762985671012914</v>
+        <v>-5.76188591757421</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7306972277386656</v>
+        <v>-0.723273892027407</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.341174674704305</v>
+        <v>-4.330085494197363</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.353480317575889</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.965955641968193</v>
+        <v>-5.966322226447762</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.061880120422968</v>
+        <v>-1.05537324591063</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.174627490254708</v>
+        <v>-4.162242171766435</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>1.51873802916826</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.492514969959575</v>
+        <v>-6.492384046931157</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9749472295539072</v>
+        <v>-0.9682308781961018</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.009036043912556</v>
+        <v>-3.99882404769601</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>1.673130736399832</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.957173890115274</v>
+        <v>-6.956493090367505</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.034477930575236</v>
+        <v>-1.027630656189013</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.930312026925258</v>
+        <v>-3.918463492853496</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>1.810290052267919</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.531912892564207</v>
+        <v>-7.529372985812913</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.123767435955807</v>
+        <v>-1.117234376837786</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.528378329684267</v>
+        <v>-3.517223687663117</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.923880328662992</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.956339166087282</v>
+        <v>-7.954388412963866</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.089688171658795</v>
+        <v>-1.082958727998147</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.320459468254816</v>
+        <v>-3.307890857526759</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>2.007394830616717</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.429311698547478</v>
+        <v>-8.427635883783738</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.276266579456233</v>
+        <v>-1.269262197435909</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.952906158276198</v>
+        <v>-2.940324455245299</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>2.055730723416399</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.371054134255676</v>
+        <v>-9.369967473119813</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.199493315592351</v>
+        <v>-1.193156641016956</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.929955351394652</v>
+        <v>-2.916823771644401</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>2.063448257217257</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19560736722758</v>
+        <v>-10.19420649082352</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.292160635106088</v>
+        <v>-1.285588299079542</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.754151908835955</v>
+        <v>-2.740509729274876</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>2.02391297575433</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02988818121089</v>
+        <v>-11.02787196657327</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.401114779354933</v>
+        <v>-1.393416505283998</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.380576139550143</v>
+        <v>-2.367955159610719</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.932405218061602</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.24621548441861</v>
+        <v>-12.2458358076362</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.477364351105145</v>
+        <v>-1.470543261324606</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.27481651719468</v>
+        <v>-2.261200522239285</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.782266301899164</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13299643279725</v>
+        <v>-13.13223707923243</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.575268591755573</v>
+        <v>-1.568630794214817</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.930122367977716</v>
+        <v>-1.915537542612033</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.566374560977648</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32613726767227</v>
+        <v>-14.32693589814561</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.784090822081103</v>
+        <v>-1.776340178798802</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.686684088938661</v>
+        <v>-1.673434678462835</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.280310538668739</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.4278807364092</v>
+        <v>-15.42890193603085</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.826536067893979</v>
+        <v>-1.819505501267972</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.271304596679218</v>
+        <v>-1.258513416802852</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.9195400391191727</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84076278217975</v>
+        <v>-16.84061876684849</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.848544228970921</v>
+        <v>-1.841212539379554</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9646959564288357</v>
+        <v>-0.9523368225462463</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.4768166542464853</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.53548283122414</v>
+        <v>-18.53772161501007</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.076520498353897</v>
+        <v>-2.070157639172818</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7554678647152114</v>
+        <v>-0.74119725461773</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0514134232466391</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.14831052599353</v>
+        <v>-20.15039220214537</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.298605231458096</v>
+        <v>-2.29097241890137</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4657352028278135</v>
+        <v>-0.4508099775882458</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.662024407907928</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.97557704900756</v>
+        <v>-21.97837880181569</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.507977338502979</v>
+        <v>-2.500632556608771</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6295591882863318</v>
+        <v>-0.6150267321320159</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.357966790824073</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.69803968777356</v>
+        <v>-23.70149605572378</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.609377224012148</v>
+        <v>-2.602438303506033</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.450273193171735</v>
+        <v>-0.435937121560045</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.138328261872287</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.77636421008053</v>
+        <v>-25.77895648604319</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.783910713195198</v>
+        <v>-2.776971792689083</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4486890245278862</v>
+        <v>-0.436316798342455</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.988881186170026</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.04252400125773</v>
+        <v>-28.04481515425504</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.657020114053189</v>
+        <v>-2.650447778026642</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5834611899806144</v>
+        <v>-0.5711675176122335</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.904302582581139</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.32400178675976</v>
+        <v>-30.32745815470998</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.145546302289356</v>
+        <v>-3.139484566073636</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9677333706881162</v>
+        <v>-0.956316882610131</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.88235347867665</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.50675051653233</v>
+        <v>-32.50949990012909</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.20595418760108</v>
+        <v>-3.200128112836512</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.193195917925481</v>
+        <v>-1.180496384169006</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.896965138060084</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.7318266613922</v>
+        <v>-34.73506046019411</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.584020616761603</v>
+        <v>-3.581389063890416</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.427967092483313</v>
+        <v>-1.416144743017234</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.949239275222928</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.23775888681278</v>
+        <v>-37.24227573129318</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.831910278766844</v>
+        <v>-3.829880971826377</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.856386518373115</v>
+        <v>-1.844001199884842</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.000889735796726</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.77183956334306</v>
+        <v>-39.77762636119911</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.729345178304762</v>
+        <v>-3.727721732752388</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.334111556764857</v>
+        <v>-2.321961899727735</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.076074841752138</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.33888665842882</v>
+        <v>-42.34463417937634</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.91068666496551</v>
+        <v>-3.908264588939791</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.696493407120993</v>
+        <v>-2.685207842071425</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.08254219632636</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.58598405666848</v>
+        <v>-44.59196723906715</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.154661728421075</v>
+        <v>-4.155198512837586</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.304735612541903</v>
+        <v>-3.293777355063378</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.12206930346498</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.89296564810618</v>
+        <v>-46.89965581485831</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.299410228639199</v>
+        <v>-4.300745643529055</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.58437410893833</v>
+        <v>-3.574489420292827</v>
       </c>
     </row>
   </sheetData>
